--- a/medicine/Sexualité et sexologie/Siège_d'amour/Siège_d'amour.xlsx
+++ b/medicine/Sexualité et sexologie/Siège_d'amour/Siège_d'amour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Si%C3%A8ge_d%27amour</t>
+          <t>Siège_d'amour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le siège d'amour était un dispositif créé par un menuisier français pour permettre au corpulent roi britannique Édouard VII d'avoir des relations sexuelles avec deux femmes simultanément tout en leurs évitant d'être écrasées par son poids[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le siège d'amour était un dispositif créé par un menuisier français pour permettre au corpulent roi britannique Édouard VII d'avoir des relations sexuelles avec deux femmes simultanément tout en leurs évitant d'être écrasées par son poids.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Si%C3%A8ge_d%27amour</t>
+          <t>Siège_d'amour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le roi Édouard était connu pour ses liaisons avec les plus célèbres aristocrates français, prostituées, actrices et danseuses de cancan ; [4] son père, en apprenant son libertinage, le qualifia de « dépravé »[5]. Il était un visiteur régulier du bordel le plus exquis et le plus somptueux du Paris victorien, Le Chabanais, où était installée la chaise, conçue spécifiquement pour répondre à ses goûts copulatoires. Créé par le fabricant de meubles Soubrier, il a été signalé en 2018 comme appartenant à la famille Soubrier [1] et a été inclus dans une exposition au musée d'Orsay en 2015[5].
-Il existe au moins trois versions de la chaise, dont l'originale appartenant à la famille Soubrier. Deux répliques existent également, l'une d'elle se trouve au Musée des Sex Machines de Prague. L'autre réplique a été mise en vente en février 2020 par un magasin de meubles anciens de la Nouvelle-Orléans pour 68 000 $[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roi Édouard était connu pour ses liaisons avec les plus célèbres aristocrates français, prostituées, actrices et danseuses de cancan ;  son père, en apprenant son libertinage, le qualifia de « dépravé ». Il était un visiteur régulier du bordel le plus exquis et le plus somptueux du Paris victorien, Le Chabanais, où était installée la chaise, conçue spécifiquement pour répondre à ses goûts copulatoires. Créé par le fabricant de meubles Soubrier, il a été signalé en 2018 comme appartenant à la famille Soubrier  et a été inclus dans une exposition au musée d'Orsay en 2015.
+Il existe au moins trois versions de la chaise, dont l'originale appartenant à la famille Soubrier. Deux répliques existent également, l'une d'elle se trouve au Musée des Sex Machines de Prague. L'autre réplique a été mise en vente en février 2020 par un magasin de meubles anciens de la Nouvelle-Orléans pour 68 000 $.
 </t>
         </is>
       </c>
